--- a/Schiphollijn/Procesplan.xlsx
+++ b/Schiphollijn/Procesplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15195" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15195" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Hfd" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13180" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13229" uniqueCount="55">
   <si>
     <t>Van</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>#Treinserie 3700 naar Den Haag</t>
+  </si>
+  <si>
+    <t>#Treinserie 3500 richting Ehv</t>
+  </si>
+  <si>
+    <t>#Treinserie 3100 richting Shl</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1498"/>
+  <dimension ref="A1:I1512"/>
   <sheetViews>
-    <sheetView topLeftCell="A1478" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1490" sqref="A1:I1498"/>
+    <sheetView tabSelected="1" topLeftCell="A1491" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1509" sqref="D1509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1118,7 +1127,7 @@
         <v>70147</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2">
         <v>0.52013888888888882</v>
@@ -1147,7 +1156,7 @@
         <v>70149</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
         <v>0.60347222222222219</v>
@@ -1176,7 +1185,7 @@
         <v>70241</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2">
         <v>0.68680555555555556</v>
@@ -1205,7 +1214,7 @@
         <v>70243</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2">
         <v>0.77013888888888893</v>
@@ -1239,7 +1248,7 @@
         <v>70149</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2">
         <v>0.54097222222222219</v>
@@ -1265,7 +1274,7 @@
         <v>70241</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2">
         <v>0.62430555555555556</v>
@@ -1291,7 +1300,7 @@
         <v>70243</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2">
         <v>0.70763888888888904</v>
@@ -1317,7 +1326,7 @@
         <v>70245</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2">
         <v>0.79097222222222296</v>
@@ -16482,7 +16491,7 @@
         <v>0.23680555555555557</v>
       </c>
       <c r="E624" s="1">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F624" s="1">
         <v>207</v>
@@ -39071,6 +39080,172 @@
         <v>11</v>
       </c>
       <c r="H1498" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8">
+      <c r="A1499" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8">
+      <c r="A1500">
+        <v>73519</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1500" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="D1500" s="2">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="E1500" s="1">
+        <v>212</v>
+      </c>
+      <c r="F1500" s="1">
+        <v>208</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8">
+      <c r="A1502">
+        <v>73519</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1502" s="2">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="D1502" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="E1502" s="1">
+        <v>208</v>
+      </c>
+      <c r="F1502" s="1">
+        <v>204</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8">
+      <c r="A1504">
+        <v>73519</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1504" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="D1504" s="2">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="E1504" s="1">
+        <v>204</v>
+      </c>
+      <c r="F1504" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8">
+      <c r="A1507" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:8">
+      <c r="A1508">
+        <v>73112</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1508" s="2">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="D1508" s="2">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="E1508" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1508" s="1">
+        <v>202</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8">
+      <c r="A1510">
+        <v>73112</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1510" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="D1510" s="2">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="E1510" s="1">
+        <v>202</v>
+      </c>
+      <c r="F1510" s="1">
+        <v>205</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:8">
+      <c r="A1512">
+        <v>73112</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1512" s="2">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="D1512" s="2">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="E1512" s="1">
+        <v>205</v>
+      </c>
+      <c r="F1512" s="1">
+        <v>212</v>
+      </c>
+      <c r="G1512">
+        <v>73521</v>
+      </c>
+      <c r="H1512" t="s">
         <v>11</v>
       </c>
     </row>
@@ -39081,10 +39256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1045"/>
+  <dimension ref="A1:I1055"/>
   <sheetViews>
-    <sheetView topLeftCell="A1004" workbookViewId="0">
-      <selection activeCell="C1017" sqref="A1:I1045"/>
+    <sheetView topLeftCell="A1032" workbookViewId="0">
+      <selection activeCell="C1048" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65893,6 +66068,120 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1046" spans="1:8">
+      <c r="A1046" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8">
+      <c r="A1047">
+        <v>73519</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1047" s="2">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="D1047" s="2">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1047" s="1">
+        <v>102</v>
+      </c>
+      <c r="G1047">
+        <v>3519</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8">
+      <c r="A1049">
+        <v>3519</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1049" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D1049" s="2">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="E1049" s="1">
+        <v>102</v>
+      </c>
+      <c r="F1049" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8">
+      <c r="A1052" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8">
+      <c r="A1053">
+        <v>3112</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1053" s="2">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="D1053" s="2">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1053" s="1">
+        <v>104</v>
+      </c>
+      <c r="G1053">
+        <v>73112</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8">
+      <c r="A1055">
+        <v>73112</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1055" s="2">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="D1055" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E1055" s="1">
+        <v>104</v>
+      </c>
+      <c r="F1055" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65900,10 +66189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C532" sqref="A1:I532"/>
+    <sheetView topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="B543" sqref="B543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -79374,6 +79663,68 @@
         <v>11</v>
       </c>
     </row>
+    <row r="533" spans="1:8">
+      <c r="A533" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534">
+        <v>3519</v>
+      </c>
+      <c r="B534" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534" s="2">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="D534" s="2">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G534" t="s">
+        <v>11</v>
+      </c>
+      <c r="H534" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539">
+        <v>3112</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539" s="2">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="D539" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G539" t="s">
+        <v>11</v>
+      </c>
+      <c r="H539" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79383,8 +79734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="C357" sqref="A1:I371"/>
+    <sheetView topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Schiphollijn/Procesplan.xlsx
+++ b/Schiphollijn/Procesplan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13229" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13322" uniqueCount="57">
   <si>
     <t>Van</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>#Treinserie 3500 richting Shl</t>
+  </si>
+  <si>
+    <t>#Treinserie 3100 richting Nm</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1512"/>
+  <dimension ref="A1:I1529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1491" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1509" sqref="D1509"/>
+    <sheetView tabSelected="1" topLeftCell="A1487" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1504" sqref="E1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39105,7 +39111,7 @@
         <v>212</v>
       </c>
       <c r="F1500" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G1500" t="s">
         <v>11</v>
@@ -39114,127 +39120,205 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1502" spans="1:8">
-      <c r="A1502">
+    <row r="1501" spans="1:8">
+      <c r="A1501">
+        <v>73521</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1501" s="2">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="D1501" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="E1501" s="1">
+        <v>212</v>
+      </c>
+      <c r="F1501" s="1">
+        <v>207</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8">
+      <c r="A1503">
         <v>73519</v>
       </c>
-      <c r="B1502" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1502" s="2">
+      <c r="B1503" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1503" s="2">
         <v>0.25625000000000003</v>
       </c>
-      <c r="D1502" s="2">
+      <c r="D1503" s="2">
         <v>0.25486111111111109</v>
       </c>
-      <c r="E1502" s="1">
-        <v>208</v>
-      </c>
-      <c r="F1502" s="1">
+      <c r="E1503" s="1">
+        <v>207</v>
+      </c>
+      <c r="F1503" s="1">
         <v>204</v>
       </c>
-      <c r="G1502" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1502" t="s">
+      <c r="G1503" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1503" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="1504" spans="1:8">
       <c r="A1504">
+        <v>73521</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1504" s="2">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="D1504" s="2">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="E1504" s="1">
+        <v>207</v>
+      </c>
+      <c r="F1504" s="1">
+        <v>204</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8">
+      <c r="A1506">
         <v>73519</v>
       </c>
-      <c r="B1504" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1504" s="2">
+      <c r="B1506" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1506" s="2">
         <v>0.25694444444444448</v>
       </c>
-      <c r="D1504" s="2">
+      <c r="D1506" s="2">
         <v>0.25555555555555559</v>
       </c>
-      <c r="E1504" s="1">
+      <c r="E1506" s="1">
         <v>204</v>
       </c>
-      <c r="F1504" s="1" t="s">
+      <c r="F1506" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1504" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1504" t="s">
+      <c r="G1506" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1506" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="1507" spans="1:8">
-      <c r="A1507" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:8">
-      <c r="A1508">
-        <v>73112</v>
-      </c>
-      <c r="B1508" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1508" s="2">
-        <v>0.27430555555555552</v>
-      </c>
-      <c r="D1508" s="2">
-        <v>0.2722222222222222</v>
-      </c>
-      <c r="E1508" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1508" s="1">
-        <v>202</v>
-      </c>
-      <c r="G1508" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1508" t="s">
-        <v>11</v>
+      <c r="A1507">
+        <v>73521</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1507" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D1507" s="2">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="E1507" s="1">
+        <v>204</v>
+      </c>
+      <c r="F1507" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8">
+      <c r="A1509" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="1510" spans="1:8">
       <c r="A1510">
-        <v>73112</v>
+        <v>80568</v>
       </c>
       <c r="B1510" t="s">
         <v>9</v>
       </c>
       <c r="C1510" s="2">
-        <v>0.27499999999999997</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="D1510" s="2">
-        <v>0.27361111111111108</v>
-      </c>
-      <c r="E1510" s="1">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="E1510" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1510" s="1">
         <v>202</v>
       </c>
-      <c r="F1510" s="1">
+      <c r="G1510" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:8">
+      <c r="A1511">
+        <v>80568</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1511" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="D1511" s="2">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="E1511" s="1">
+        <v>202</v>
+      </c>
+      <c r="F1511" s="1">
         <v>205</v>
       </c>
-      <c r="G1510" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1510" t="s">
+      <c r="G1511" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1511" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="1512" spans="1:8">
       <c r="A1512">
-        <v>73112</v>
+        <v>80568</v>
       </c>
       <c r="B1512" t="s">
         <v>13</v>
       </c>
       <c r="C1512" s="2">
-        <v>0.27569444444444446</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="D1512" s="2">
-        <v>0.27430555555555552</v>
+        <v>0.28125</v>
       </c>
       <c r="E1512" s="1">
         <v>205</v>
@@ -39243,9 +39327,253 @@
         <v>212</v>
       </c>
       <c r="G1512">
+        <v>73123</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:8">
+      <c r="A1514" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8">
+      <c r="A1515">
+        <v>73112</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1515" s="2">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="D1515" s="2">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="E1515" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1515" s="1">
+        <v>202</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8">
+      <c r="A1516">
+        <v>73114</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1516" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D1516" s="2">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="E1516" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1516" s="1">
+        <v>202</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8">
+      <c r="A1518">
+        <v>73112</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1518" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="D1518" s="2">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="E1518" s="1">
+        <v>202</v>
+      </c>
+      <c r="F1518" s="1">
+        <v>205</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8">
+      <c r="A1519">
+        <v>73114</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1519" s="2">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="D1519" s="2">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="E1519" s="1">
+        <v>202</v>
+      </c>
+      <c r="F1519" s="1">
+        <v>205</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8">
+      <c r="A1521">
+        <v>73112</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1521" s="2">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="D1521" s="2">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="E1521" s="1">
+        <v>205</v>
+      </c>
+      <c r="F1521" s="1">
+        <v>212</v>
+      </c>
+      <c r="G1521">
         <v>73521</v>
       </c>
-      <c r="H1512" t="s">
+      <c r="H1521" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8">
+      <c r="A1522">
+        <v>73114</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1522" s="2">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="D1522" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="E1522" s="1">
+        <v>205</v>
+      </c>
+      <c r="F1522" s="1">
+        <v>212</v>
+      </c>
+      <c r="G1522">
+        <v>73523</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:8">
+      <c r="A1524" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8">
+      <c r="A1525">
+        <v>73123</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1525" s="2">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="D1525" s="2">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="E1525" s="1">
+        <v>212</v>
+      </c>
+      <c r="F1525" s="1">
+        <v>208</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8">
+      <c r="A1527">
+        <v>73123</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1527" s="2">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="D1527" s="2">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="E1527" s="1">
+        <v>208</v>
+      </c>
+      <c r="F1527" s="1">
+        <v>203</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8">
+      <c r="A1529">
+        <v>73123</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1529" s="2">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="D1529" s="2">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="E1529" s="1">
+        <v>203</v>
+      </c>
+      <c r="F1529" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1529" t="s">
         <v>11</v>
       </c>
     </row>
@@ -39256,10 +39584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1055"/>
+  <dimension ref="A1:I1067"/>
   <sheetViews>
-    <sheetView topLeftCell="A1032" workbookViewId="0">
-      <selection activeCell="C1048" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A1044" workbookViewId="0">
+      <selection activeCell="A1046" sqref="A1046:H1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66099,75 +66427,127 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1049" spans="1:8">
-      <c r="A1049">
+    <row r="1048" spans="1:8">
+      <c r="A1048">
+        <v>73521</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1048" s="2">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="D1048" s="2">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1048" s="1">
+        <v>102</v>
+      </c>
+      <c r="G1048">
+        <v>3521</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8">
+      <c r="A1050">
         <v>3519</v>
       </c>
-      <c r="B1049" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1049" s="2">
+      <c r="B1050" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1050" s="2">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D1049" s="2">
+      <c r="D1050" s="2">
         <v>0.25972222222222224</v>
       </c>
-      <c r="E1049" s="1">
+      <c r="E1050" s="1">
         <v>102</v>
       </c>
-      <c r="F1049" s="1" t="s">
+      <c r="F1050" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1049" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1049" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:8">
-      <c r="A1052" t="s">
-        <v>53</v>
+      <c r="G1050" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8">
+      <c r="A1051">
+        <v>3521</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="D1051" s="2">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="E1051" s="1">
+        <v>102</v>
+      </c>
+      <c r="F1051" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
-      <c r="A1053">
-        <v>3112</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1053" s="2">
-        <v>0.27013888888888887</v>
-      </c>
-      <c r="D1053" s="2">
-        <v>0.26805555555555555</v>
-      </c>
-      <c r="E1053" s="1" t="s">
+      <c r="A1053" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8">
+      <c r="A1054">
+        <v>80568</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1054" s="2">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="D1054" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="E1054" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1053" s="1">
+      <c r="F1054" s="1">
         <v>104</v>
       </c>
-      <c r="G1053">
-        <v>73112</v>
-      </c>
-      <c r="H1053" t="s">
+      <c r="G1054" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1054" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
       <c r="A1055">
-        <v>73112</v>
+        <v>80568</v>
       </c>
       <c r="B1055" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1055" s="2">
-        <v>0.27152777777777776</v>
+        <v>0.27708333333333335</v>
       </c>
       <c r="D1055" s="2">
-        <v>0.27083333333333331</v>
+        <v>0.27638888888888885</v>
       </c>
       <c r="E1055" s="1">
         <v>104</v>
@@ -66179,6 +66559,172 @@
         <v>11</v>
       </c>
       <c r="H1055" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8">
+      <c r="A1057" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8">
+      <c r="A1058">
+        <v>3112</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1058" s="2">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="D1058" s="2">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>104</v>
+      </c>
+      <c r="G1058">
+        <v>73112</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8">
+      <c r="A1059">
+        <v>3114</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1059" s="2">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="D1059" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1059" s="1">
+        <v>104</v>
+      </c>
+      <c r="G1059">
+        <v>73114</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8">
+      <c r="A1061">
+        <v>73112</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1061" s="2">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="D1061" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E1061" s="1">
+        <v>104</v>
+      </c>
+      <c r="F1061" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8">
+      <c r="A1062">
+        <v>73114</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1062" s="2">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="D1062" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E1062" s="1">
+        <v>104</v>
+      </c>
+      <c r="F1062" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1062" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8">
+      <c r="A1064" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8">
+      <c r="A1065">
+        <v>73123</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1065" s="2">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="D1065" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1065" s="1">
+        <v>103</v>
+      </c>
+      <c r="G1065">
+        <v>3123</v>
+      </c>
+      <c r="H1065" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8">
+      <c r="A1067">
+        <v>3123</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1067" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D1067" s="2">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="E1067" s="1">
+        <v>103</v>
+      </c>
+      <c r="F1067" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1067" t="s">
         <v>11</v>
       </c>
     </row>
@@ -66189,10 +66735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I546"/>
   <sheetViews>
-    <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="B543" sqref="B543"/>
+    <sheetView topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="G541" sqref="G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -79694,23 +80240,49 @@
         <v>11</v>
       </c>
     </row>
+    <row r="535" spans="1:8">
+      <c r="A535">
+        <v>3521</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535" s="2">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="D535" s="2">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G535" t="s">
+        <v>11</v>
+      </c>
+      <c r="H535" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="538" spans="1:8">
       <c r="A538" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="539" spans="1:8">
       <c r="A539">
-        <v>3112</v>
+        <v>80568</v>
       </c>
       <c r="B539" t="s">
         <v>9</v>
       </c>
       <c r="C539" s="2">
-        <v>0.26805555555555555</v>
+        <v>0.27361111111111108</v>
       </c>
       <c r="D539" s="2">
-        <v>0.26666666666666666</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="E539" s="1" t="s">
         <v>10</v>
@@ -79722,6 +80294,94 @@
         <v>11</v>
       </c>
       <c r="H539" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542">
+        <v>3112</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542" s="2">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="D542" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G542" t="s">
+        <v>11</v>
+      </c>
+      <c r="H542" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543">
+        <v>3114</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="D543" s="2">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G543" t="s">
+        <v>11</v>
+      </c>
+      <c r="H543" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546">
+        <v>3123</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546" s="2">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="D546" s="2">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G546" t="s">
+        <v>11</v>
+      </c>
+      <c r="H546" t="s">
         <v>11</v>
       </c>
     </row>
